--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Graph2" sheetId="6" r:id="rId2"/>
-    <sheet name="最終形態" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="最終形態" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -271,6 +270,19 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間合計</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -929,7 +941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:f>最終形態!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -963,7 +975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E24F-446D-B4D0-DFBC6DA3F179}"/>
+              <c16:uniqueId val="{00000000-833A-4B78-9BF8-EB75EF4423AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1058,7 +1070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E24F-446D-B4D0-DFBC6DA3F179}"/>
+              <c16:uniqueId val="{00000001-833A-4B78-9BF8-EB75EF4423AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1067,7 +1079,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$I$2</c:f>
+              <c:f>最終形態!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,7 +1146,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$I$3:$I$10</c:f>
+              <c:f>最終形態!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1168,7 +1180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E24F-446D-B4D0-DFBC6DA3F179}"/>
+              <c16:uniqueId val="{00000002-833A-4B78-9BF8-EB75EF4423AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1184,6 +1196,85 @@
         <c:smooth val="0"/>
         <c:axId val="544341736"/>
         <c:axId val="544342064"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>最終形態!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>作業時間合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-833A-4B78-9BF8-EB75EF4423AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2065361951"/>
+        <c:axId val="1991828111"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="544341736"/>
@@ -1412,6 +1503,128 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1991828111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作業時間（時間）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91997395833333329"/>
+              <c:y val="0.22598753280839895"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065361951"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2065361951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1991828111"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1481,6 +1694,11 @@
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1628,7 +1846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:f>最終形態!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1763,7 +1981,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$I$2</c:f>
+              <c:f>最終形態!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1827,7 +2045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$I$3:$I$10</c:f>
+              <c:f>最終形態!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3798,18 +4016,6 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4456,15 +4662,23 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9292981" cy="6044712"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4477,7 +4691,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4903,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4915,11 +5129,12 @@
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -4928,7 +5143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4945,14 +5160,17 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4960,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C14" si="0">B3+C2</f>
+        <f t="shared" ref="C3:C12" si="0">B3+C2</f>
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -4970,14 +5188,17 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>$B$14</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I10" si="1">$B$14</f>
         <v>74</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4995,14 +5216,17 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <f>$B$14</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5020,15 +5244,18 @@
         <v>10</v>
       </c>
       <c r="H5" s="3">
-        <f>$B$14</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="I5" s="3">
-        <f>IF(I4+20&lt;H5,I4+20,H5)</f>
+      <c r="J5" s="3">
+        <f>IF(J4+20&lt;I5,J4+20,I5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5043,16 +5270,17 @@
         <v>26</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <f>$B$14</f>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" ref="I6:I10" si="1">IF(I5+20&lt;H6,I5+20,H6)</f>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J10" si="2">IF(J5+20&lt;I6,J5+20,I6)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5067,16 +5295,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <f>$B$14</f>
-        <v>74</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5091,16 +5320,17 @@
         <v>21</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <f>$B$14</f>
-        <v>74</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5115,16 +5345,17 @@
         <v>22</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <f>$B$14</f>
-        <v>74</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -5139,16 +5370,17 @@
         <v>23</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <f>$B$14</f>
-        <v>74</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -5160,7 +5392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -5172,7 +5404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -5184,7 +5416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -5210,12 +5442,19 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f>$B$14*4</f>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -1250,9 +1250,6 @@
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1620,6 +1617,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1991828111"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5120,7 +5118,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5243,9 +5241,7 @@
       <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
-        <v>40</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>74</v>

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="最終形態" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Graph1" sheetId="8" r:id="rId2"/>
+    <sheet name="最終形態" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -140,16 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了ポイント合計</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイルストーン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,10 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5/31</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,7 +261,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業時間合計</t>
+    <t>作業時間累計</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
     </rPh>
@@ -282,7 +269,90 @@
       <t>ジカン</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ゴウケイ</t>
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了ポイント累計</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント１開始</t>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃１終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃２終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃３終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃４終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃５終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発表</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -941,7 +1011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$I$3:$I$10</c:f>
+              <c:f>最終形態!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -975,7 +1045,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-833A-4B78-9BF8-EB75EF4423AE}"/>
+              <c16:uniqueId val="{00000000-7BD6-484D-B7AE-7B6527766A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,11 +1054,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$G$2</c:f>
+              <c:f>最終形態!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>完了ポイント合計</c:v>
+                  <c:v>完了ポイント累計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1051,7 +1121,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$G$3:$G$10</c:f>
+              <c:f>最終形態!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1070,7 +1140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-833A-4B78-9BF8-EB75EF4423AE}"/>
+              <c16:uniqueId val="{00000001-7BD6-484D-B7AE-7B6527766A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1079,7 +1149,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$J$2</c:f>
+              <c:f>最終形態!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1146,7 +1216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$J$3:$J$10</c:f>
+              <c:f>最終形態!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1180,7 +1250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-833A-4B78-9BF8-EB75EF4423AE}"/>
+              <c16:uniqueId val="{00000002-7BD6-484D-B7AE-7B6527766A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1205,11 +1275,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$H$2</c:f>
+              <c:f>最終形態!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>作業時間合計</c:v>
+                  <c:v>作業時間累計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1240,7 +1310,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:f>最終形態!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1248,7 +1318,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1329,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-833A-4B78-9BF8-EB75EF4423AE}"/>
+              <c16:uniqueId val="{00000003-7BD6-484D-B7AE-7B6527766A9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1422,15 +1495,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>理想時間</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>ポイント）</a:t>
+                  <a:t>理想時間（ポイント）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1538,8 +1603,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91997395833333329"/>
-              <c:y val="0.22598753280839895"/>
+              <c:x val="0.96375309154795374"/>
+              <c:y val="0.35595314040958814"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1692,11 +1757,6 @@
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1844,7 +1904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$I$3:$I$10</c:f>
+              <c:f>最終形態!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1887,11 +1947,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$G$2</c:f>
+              <c:f>最終形態!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>完了ポイント合計</c:v>
+                  <c:v>完了ポイント累計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1951,7 +2011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$G$3:$G$10</c:f>
+              <c:f>最終形態!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1979,7 +2039,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$J$2</c:f>
+              <c:f>最終形態!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2043,7 +2103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$J$3:$J$10</c:f>
+              <c:f>最終形態!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4014,6 +4074,17 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4660,23 +4731,15 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9282971" cy="6058525"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4689,7 +4752,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5115,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5128,11 +5191,13 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -5141,7 +5206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5153,22 +5218,26 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5180,23 +5249,29 @@
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I10" si="1">$B$14</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K10" si="1">$B$14</f>
+        <v>74</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5208,23 +5283,30 @@
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
-        <v>40</v>
-      </c>
       <c r="I4" s="3">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3">
+        <f>I4+J3</f>
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5236,22 +5318,31 @@
         <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3">
+        <v>63</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5+J4</f>
+        <v>87</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J5" s="3">
-        <f>IF(J4+20&lt;I5,J4+20,I5)</f>
+      <c r="L5" s="3">
+        <f>IF(L4+20&lt;K5,L4+20,K5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5263,20 +5354,24 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" ref="J6:J10" si="2">IF(J5+20&lt;I6,J5+20,I6)</f>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L10" si="2">IF(L5+20&lt;K6,L5+20,K6)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5288,20 +5383,24 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5313,20 +5412,24 @@
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5338,22 +5441,26 @@
         <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -5363,22 +5470,26 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -5388,9 +5499,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
@@ -5400,9 +5511,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -5412,7 +5523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -5424,20 +5535,20 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -5450,7 +5561,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Graph1" sheetId="8" r:id="rId2"/>
+    <sheet name="Graph1" sheetId="9" r:id="rId2"/>
     <sheet name="最終形態" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -148,16 +148,6 @@
     <t>完了時間</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理想時間</t>
-    <rPh sb="0" eb="2">
-      <t>リソウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
@@ -356,6 +346,49 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>完了時間累計</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積時間</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想時間(ポイント）</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想完了時間</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カンリョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +475,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,11 +980,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$B$1</c:f>
+              <c:f>最終形態!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見積もりポイント数</c:v>
+                  <c:v>見積時間</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,33 +1047,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$K$3:$K$10</c:f>
+              <c:f>最終形態!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BD6-484D-B7AE-7B6527766A9C}"/>
+              <c16:uniqueId val="{00000000-2C06-4F43-9B85-9BDA0059BA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,11 +1090,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$H$2</c:f>
+              <c:f>最終形態!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>完了ポイント累計</c:v>
+                  <c:v>完了時間累計</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,7 +1157,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:f>最終形態!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1129,10 +1165,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BD6-484D-B7AE-7B6527766A9C}"/>
+              <c16:uniqueId val="{00000001-2C06-4F43-9B85-9BDA0059BA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1149,11 +1185,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$L$2</c:f>
+              <c:f>最終形態!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>理想時間</c:v>
+                  <c:v>理想完了時間</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,7 +1252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$L$3:$L$10</c:f>
+              <c:f>最終形態!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1224,25 +1260,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7BD6-484D-B7AE-7B6527766A9C}"/>
+              <c16:uniqueId val="{00000002-2C06-4F43-9B85-9BDA0059BA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1275,7 +1311,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$J$2</c:f>
+              <c:f>最終形態!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,7 +1346,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$J$3:$J$10</c:f>
+              <c:f>最終形態!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1329,7 +1365,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7BD6-484D-B7AE-7B6527766A9C}"/>
+              <c16:uniqueId val="{00000003-2C06-4F43-9B85-9BDA0059BA88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1457,6 +1493,7 @@
         <c:axId val="544342064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1495,7 +1532,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>理想時間（ポイント）</a:t>
+                  <a:t>時間</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1564,6 +1601,7 @@
         <c:crossAx val="544341736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1991828111"/>
@@ -1571,105 +1609,16 @@
           <c:orientation val="minMax"/>
           <c:max val="300"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作業時間（時間）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.96375309154795374"/>
-              <c:y val="0.35595314040958814"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2065361951"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="2065361951"/>
@@ -1904,7 +1853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$K$3:$K$10</c:f>
+              <c:f>最終形態!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2039,11 +1988,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>最終形態!$L$2</c:f>
+              <c:f>最終形態!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>理想時間</c:v>
+                  <c:v>理想時間(ポイント）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2103,7 +2052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>最終形態!$L$3:$L$10</c:f>
+              <c:f>最終形態!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5178,10 +5127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5193,11 +5142,12 @@
     <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -5206,7 +5156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5222,22 +5172,31 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5249,29 +5208,41 @@
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
+        <f>H3*4</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K10" si="1">$B$14</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L10" si="1">$B$14</f>
         <v>74</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
+        <f>L3*4</f>
+        <v>296</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O3" s="3">
+        <f>N3*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5283,30 +5254,42 @@
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" ref="I4:I10" si="2">H4*4</f>
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
         <v>24</v>
       </c>
-      <c r="J4" s="3">
-        <f>I4+J3</f>
+      <c r="K4" s="3">
+        <f>J4+K3</f>
         <v>24</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M10" si="3">L4*4</f>
+        <v>296</v>
+      </c>
+      <c r="N4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O10" si="4">N4*4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5318,31 +5301,43 @@
         <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
         <v>63</v>
       </c>
-      <c r="J5" s="3">
-        <f>I5+J4</f>
+      <c r="K5" s="3">
+        <f>J5+K4</f>
         <v>87</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L5" s="3">
-        <f>IF(L4+20&lt;K5,L4+20,K5)</f>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N5" s="3">
+        <f>IF(N4+20&lt;L5,N4+20,L5)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O5" s="3">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -5354,24 +5349,33 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L10" si="2">IF(L5+20&lt;K6,L5+20,K6)</f>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N6" s="3">
+        <f>IF(N5+20&lt;L6,N5+20,L6)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O6" s="3">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5383,24 +5387,33 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="2"/>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N7" s="3">
+        <f>IF(N6+20&lt;L7,N6+20,L7)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O7" s="3">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5412,24 +5425,33 @@
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="2"/>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N8" s="3">
+        <f>IF(N7+20&lt;L8,N7+20,L8)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -5441,26 +5463,35 @@
         <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="2"/>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N9" s="3">
+        <f>IF(N8+20&lt;L9,N8+20,L9)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -5470,26 +5501,35 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" si="2"/>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="N10" s="3">
+        <f>IF(N9+20&lt;L10,N9+20,L10)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -5499,9 +5539,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
@@ -5511,9 +5551,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -5523,7 +5563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -5535,20 +5575,20 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -176,27 +176,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6/14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6/28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7/21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,10 +187,6 @@
     <rPh sb="18" eb="20">
       <t>ソクド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -387,6 +363,30 @@
     <rPh sb="2" eb="6">
       <t>カンリョウジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1019,25 +1019,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5/3</c:v>
+                  <c:v>5/10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7/21</c:v>
@@ -1129,25 +1129,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5/3</c:v>
+                  <c:v>5/10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7/21</c:v>
@@ -1224,25 +1224,25 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5/3</c:v>
+                  <c:v>5/10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7/21</c:v>
@@ -1828,22 +1828,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7/21</c:v>
@@ -1935,22 +1935,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7/21</c:v>
@@ -2027,22 +2027,22 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5/17</c:v>
+                  <c:v>5/24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/31</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/14</c:v>
+                  <c:v>6/21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6/28</c:v>
+                  <c:v>7/5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7/12</c:v>
+                  <c:v>7/19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7/21</c:v>
@@ -4029,7 +4029,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4682,7 +4682,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9282971" cy="6058525"/>
+    <xdr:ext cx="9290779" cy="6050717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -5129,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5172,28 +5172,28 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -5208,10 +5208,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -5254,16 +5254,16 @@
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I10" si="2">H4*4</f>
+        <f t="shared" ref="I4:I5" si="2">H4*4</f>
         <v>40</v>
       </c>
       <c r="J4" s="3">
@@ -5301,10 +5301,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -5329,7 +5329,7 @@
         <v>296</v>
       </c>
       <c r="N5" s="3">
-        <f>IF(N4+20&lt;L5,N4+20,L5)</f>
+        <f t="shared" ref="N5:N10" si="5">IF(N4+20&lt;L5,N4+20,L5)</f>
         <v>40</v>
       </c>
       <c r="O5" s="3">
@@ -5349,10 +5349,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5367,7 +5367,7 @@
         <v>296</v>
       </c>
       <c r="N6" s="3">
-        <f>IF(N5+20&lt;L6,N5+20,L6)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="O6" s="3">
@@ -5387,10 +5387,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5405,7 +5405,7 @@
         <v>296</v>
       </c>
       <c r="N7" s="3">
-        <f>IF(N6+20&lt;L7,N6+20,L7)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O7" s="3">
@@ -5425,10 +5425,10 @@
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5443,7 +5443,7 @@
         <v>296</v>
       </c>
       <c r="N8" s="3">
-        <f>IF(N7+20&lt;L8,N7+20,L8)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O8" s="3">
@@ -5463,10 +5463,10 @@
         <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5481,7 +5481,7 @@
         <v>296</v>
       </c>
       <c r="N9" s="3">
-        <f>IF(N8+20&lt;L9,N8+20,L9)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O9" s="3">
@@ -5491,7 +5491,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -5501,10 +5501,10 @@
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5519,7 +5519,7 @@
         <v>296</v>
       </c>
       <c r="N10" s="3">
-        <f>IF(N9+20&lt;L10,N9+20,L10)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O10" s="3">
@@ -5529,7 +5529,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -514,6 +514,10 @@
     <rPh sb="3" eb="4">
       <t>メ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やるかもしれない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -575,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +600,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,28 +774,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,25 +982,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>296</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>296</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,12 +1254,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>時間</a:t>
+                  <a:t>時間（ｈ）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2302520595958637E-2"/>
+              <c:y val="0.4219478451892561"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1971,7 +1985,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2441,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2548,11 +2562,11 @@
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M10" si="1">$C$14</f>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N3" s="1">
         <f>M3*4</f>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -2598,18 +2612,19 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N10" si="3">M4*4</f>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O4" s="1">
-        <v>20</v>
+        <f>IF(O3+10&lt;M4,O3+10,M4)</f>
+        <v>10</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4:P10" si="4">O4*4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -2648,19 +2663,19 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O10" si="5">IF(O4+20&lt;M5,O4+20,M5)</f>
-        <v>40</v>
+        <f t="shared" ref="O5:O10" si="5">IF(O4+10&lt;M5,O4+10,M5)</f>
+        <v>20</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -2689,35 +2704,22 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
       <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
@@ -2730,35 +2732,22 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
       <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
@@ -2771,35 +2760,22 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
       <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
@@ -2812,19 +2788,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -2836,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>C10+J16</f>
         <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2851,19 +2827,19 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -2904,6 +2880,9 @@
         <f>C13+D12</f>
         <v>74</v>
       </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -2912,9 +2891,52 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <f>SUM(C2:C13)</f>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I14+D6</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <f>I15+J14</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <f>I16+J15</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
@@ -2937,7 +2959,7 @@
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>$C$14*4</f>
-        <v>296</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="作業時間" sheetId="10" r:id="rId1"/>
     <sheet name="作業シート" sheetId="4" r:id="rId2"/>
     <sheet name="Graph1" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -661,7 +661,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -774,7 +773,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>208</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>208</c:v>
@@ -1137,7 +1136,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1376,7 +1374,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1985,7 +1982,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1996,10 +1993,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9292981" cy="6044712"/>
+    <xdr:ext cx="9293175" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2095,6 +2098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2130,6 +2150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2288,9 +2325,9 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2351,7 +2388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2388,7 +2425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2407,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2426,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2455,26 +2492,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.08203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -2484,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2561,12 +2598,11 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="1">$C$14</f>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N3" s="1">
         <f>M3*4</f>
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -2576,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J5" si="2">I4*4</f>
+        <f t="shared" ref="J4:J5" si="1">I4*4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -2611,11 +2647,11 @@
         <v>24</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M10" si="2">$C$14</f>
         <v>52</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N10" si="3">M4*4</f>
+        <f>M4*4</f>
         <v>208</v>
       </c>
       <c r="O4" s="1">
@@ -2623,11 +2659,11 @@
         <v>10</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P10" si="4">O4*4</f>
+        <f t="shared" ref="P4:P10" si="3">O4*4</f>
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2651,7 +2687,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K5" s="1">
@@ -2662,11 +2698,11 @@
         <v>87</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N4:N10" si="4">M5*4</f>
         <v>208</v>
       </c>
       <c r="O5" s="1">
@@ -2674,11 +2710,11 @@
         <v>20</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2703,11 +2739,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="O6" s="1">
@@ -2715,11 +2751,11 @@
         <v>30</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
@@ -2731,11 +2767,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="O7" s="1">
@@ -2743,11 +2779,11 @@
         <v>40</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
@@ -2759,11 +2795,11 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="O8" s="1">
@@ -2771,11 +2807,11 @@
         <v>50</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
@@ -2787,11 +2823,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="O9" s="1">
@@ -2799,11 +2835,11 @@
         <v>52</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2826,11 +2862,11 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="O10" s="1">
@@ -2838,11 +2874,11 @@
         <v>52</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2855,7 +2891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +2920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2923,7 +2959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2938,12 +2974,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -2951,12 +2987,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <f>$C$14*4</f>
         <v>208</v>

--- a/バーンアップチャート.xlsx
+++ b/バーンアップチャート.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="作業時間" sheetId="10" r:id="rId1"/>
     <sheet name="作業シート" sheetId="4" r:id="rId2"/>
     <sheet name="Graph1" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -63,27 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件6</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件7</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件8</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積もりポイント数</t>
     <rPh sb="0" eb="2">
       <t>ミツ</t>
@@ -389,30 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>資格情報</t>
-    <rPh sb="0" eb="4">
-      <t>シカクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>教養の空き</t>
-    <rPh sb="0" eb="2">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案内図</t>
-    <rPh sb="0" eb="3">
-      <t>アンナイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スプリント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -514,10 +469,6 @@
     <rPh sb="3" eb="4">
       <t>メ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やるかもしれない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,6 +612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -773,10 +725,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>208</c:v>
@@ -890,6 +842,18 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,6 +1043,18 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,6 +1112,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1213,7 +1190,7 @@
         <c:axId val="544342064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1374,6 +1351,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1982,7 +1960,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1993,7 +1971,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293175" cy="6067778"/>
+    <xdr:ext cx="9284368" cy="6045868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
@@ -2098,23 +2076,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2150,23 +2111,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2325,47 +2269,47 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2388,7 +2332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2425,7 +2369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2444,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2463,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2492,41 +2436,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2536,40 +2480,40 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -2579,10 +2523,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -2598,11 +2542,11 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N3" s="1">
         <f>M3*4</f>
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -2612,12 +2556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -2627,16 +2571,16 @@
         <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J5" si="1">I4*4</f>
+        <f t="shared" ref="J4:J9" si="1">I4*4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -2647,28 +2591,27 @@
         <v>24</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M3:M10" si="2">$C$14</f>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N4" s="1">
         <f>M4*4</f>
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="O4" s="1">
         <f>IF(O3+10&lt;M4,O3+10,M4)</f>
         <v>10</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P10" si="3">O4*4</f>
+        <f t="shared" ref="P4:P10" si="2">O4*4</f>
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2678,10 +2621,10 @@
         <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
@@ -2698,11 +2641,11 @@
         <v>87</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M4:M10" si="3">$C$14</f>
         <v>52</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N4:N10" si="4">M5*4</f>
+        <f t="shared" ref="N5:N10" si="4">M5*4</f>
         <v>208</v>
       </c>
       <c r="O5" s="1">
@@ -2710,16 +2653,16 @@
         <v>20</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2729,17 +2672,27 @@
         <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L9" si="6">K6+L5</f>
+        <v>103</v>
+      </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="N6" s="1">
@@ -2751,23 +2704,33 @@
         <v>30</v>
       </c>
       <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K7" s="1">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N7" s="1">
@@ -2779,23 +2742,33 @@
         <v>40</v>
       </c>
       <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N8" s="1">
@@ -2807,23 +2780,33 @@
         <v>50</v>
       </c>
       <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="K9" s="1">
+        <v>63</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="N9" s="1">
@@ -2835,34 +2818,34 @@
         <v>52</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <f>C10+J16</f>
-        <v>59</v>
+        <f>D6+C10</f>
+        <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="N10" s="1">
@@ -2874,129 +2857,138 @@
         <v>52</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>D10+C11</f>
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f>D11+C12</f>
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f>C13+D12</f>
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
+        <f>D12+C13</f>
+        <v>52</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <f>SUM(C2:C13)</f>
         <v>52</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1">
-        <f>I14+D6</f>
-        <v>37</v>
-      </c>
+      <c r="D14" s="1">
+        <f>SUM(D13)</f>
+        <v>52</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="1">
-        <f>I15+J14</f>
-        <v>49</v>
-      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1">
-        <f>I16+J15</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>$C$14*4</f>
         <v>208</v>
       </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
